--- a/data/xlsx/03042019.xlsx
+++ b/data/xlsx/03042019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA2181C6-0A30-5141-BD71-C78F5A5C951A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059D755C-5854-F646-BF9C-1FB32594BF1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="03042019" sheetId="1" r:id="rId1"/>
@@ -259,17 +259,9 @@
     <t>(MH-36-O) ISSUED A 7 DAY STAY AWAY FOR UNWANTED CONTACT TO A UC EMPLOYEE, MOSES HALL. EMERGENCY PROTECTIVE ORDER SERVED.</t>
   </si>
   <si>
-    <t>(MO-20-S) REPORTS VANDALISM TO WINDOW VIA PUNCH, UNIT-3 DINING.
-SUSPECT: MALE, INDIAN, 18, 5'11, THIN, BLACK CURLY HAIR, WEARING GLASSES, PURPLE SWEATER, KHAKI PANTS, BLACK BACKPACK. LAST SEEN WALKING WESTBOUND FROM UNIT-3 DINING.</t>
-  </si>
-  <si>
     <t>DISORDERLY CONDUCT</t>
   </si>
   <si>
-    <t>SNEED, MALCOLM (MB-22-O) ARRESTED FOR PROWLING, POSSESSION OF STOLEN PROPERTY AND VIOLATION OF PROBATION, BANWAY. TOT BPD JAIL.
-PROPERTY FROM CASE 19-00599 RECOVERED.</t>
-  </si>
-  <si>
     <t>AUTO BURGLARY -REPORT</t>
   </si>
   <si>
@@ -307,6 +299,12 @@
   </si>
   <si>
     <t>CHANNING/WARRING</t>
+  </si>
+  <si>
+    <t>(MO-20-S) REPORTS VANDALISM TO WINDOW VIA PUNCH, UNIT-3 DINING. SUSPECT: MALE, INDIAN, 18, 5'11, THIN, BLACK CURLY HAIR, WEARING GLASSES, PURPLE SWEATER, KHAKI PANTS, BLACK BACKPACK. LAST SEEN WALKING WESTBOUND FROM UNIT-3 DINING.</t>
+  </si>
+  <si>
+    <t>SNEED, MALCOLM (MB-22-O) ARRESTED FOR PROWLING, POSSESSION OF STOLEN PROPERTY AND VIOLATION OF PROBATION, BANWAY. TOT BPD JAIL. PROPERTY FROM CASE 19-00599 RECOVERED.</t>
   </si>
 </sst>
 </file>
@@ -699,7 +697,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -729,10 +727,10 @@
         <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -761,7 +759,7 @@
         <v>-122.256486</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -787,7 +785,7 @@
         <v>-122.267504</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -804,7 +802,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F4">
         <v>37.867497999999998</v>
@@ -813,7 +811,7 @@
         <v>-122.25425300000001</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -839,7 +837,7 @@
         <v>-122.256604</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -865,7 +863,7 @@
         <v>-122.26470999999999</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -882,7 +880,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F7">
         <v>37.884621000000003</v>
@@ -891,7 +889,7 @@
         <v>-122.305329</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -917,7 +915,7 @@
         <v>-122.25967</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -943,7 +941,7 @@
         <v>-122.262235</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -960,7 +958,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F10">
         <v>37.868169999999999</v>
@@ -969,7 +967,7 @@
         <v>-122.26409099999999</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -995,7 +993,7 @@
         <v>-122.254698</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1012,7 +1010,7 @@
         <v>71</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F12">
         <v>37.883879999999998</v>
@@ -1047,7 +1045,7 @@
         <v>-122.301123</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1090,7 +1088,7 @@
         <v>75</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F15">
         <v>37.867967999999998</v>
@@ -1125,7 +1123,7 @@
         <v>-122.235893</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1139,7 +1137,7 @@
         <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>45</v>
@@ -1177,7 +1175,7 @@
         <v>-122.264206</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="120">
@@ -1203,10 +1201,10 @@
         <v>-122.260338</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="96">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="84">
       <c r="A20" s="4">
         <v>43528</v>
       </c>
@@ -1214,7 +1212,7 @@
         <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>55</v>
@@ -1229,7 +1227,7 @@
         <v>-122.266867</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1243,10 +1241,10 @@
         <v>58</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21">
         <v>37.871837999999997</v>
@@ -1255,7 +1253,7 @@
         <v>-122.266959</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1281,7 +1279,7 @@
         <v>-122.258093</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1298,7 +1296,7 @@
         <v>71</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F23">
         <v>37.865819999999999</v>
@@ -1307,7 +1305,7 @@
         <v>-122.257058</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1333,7 +1331,7 @@
         <v>-122.303039</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/03042019.xlsx
+++ b/data/xlsx/03042019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059D755C-5854-F646-BF9C-1FB32594BF1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F45D8E2-CA6F-0545-8D96-C8F2A9522521}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,6 +311,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -355,7 +358,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,7 +700,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
